--- a/results/table2/VP.xlsx
+++ b/results/table2/VP.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -508,7 +508,7 @@
         <v>637</v>
       </c>
       <c r="D4" t="n">
-        <v>2578</v>
+        <v>2579</v>
       </c>
     </row>
     <row r="5">
@@ -529,7 +529,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>971 (37.7)</t>
+          <t>972 (37.7)</t>
         </is>
       </c>
     </row>
@@ -565,7 +565,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>623 (24.2)</t>
+          <t>624 (24.2)</t>
         </is>
       </c>
     </row>
@@ -583,7 +583,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>389 (15.1)</t>
+          <t>388 (15.0)</t>
         </is>
       </c>
     </row>
@@ -605,7 +605,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1098 (42.6)</t>
+          <t>1097 (42.5)</t>
         </is>
       </c>
     </row>
@@ -627,7 +627,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1329 (51.6)</t>
+          <t>1330 (51.6)</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>117 (4.5)</t>
+          <t>118 (4.6)</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>925 (35.9)</t>
+          <t>924 (35.8)</t>
         </is>
       </c>
     </row>
@@ -751,7 +751,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>688 (26.7)</t>
+          <t>689 (26.7)</t>
         </is>
       </c>
     </row>
@@ -773,7 +773,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1316 (51.0)</t>
+          <t>1317 (51.1)</t>
         </is>
       </c>
     </row>
@@ -861,7 +861,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>986 (38.2)</t>
+          <t>987 (38.3)</t>
         </is>
       </c>
     </row>
@@ -1003,7 +1003,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2399 (93.1)</t>
+          <t>2400 (93.1)</t>
         </is>
       </c>
     </row>
@@ -1043,7 +1043,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>761 (29.5)</t>
+          <t>762 (29.5)</t>
         </is>
       </c>
     </row>
@@ -1275,7 +1275,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0.30 [0.15,0.52]</t>
+          <t>0.30 [0.16,0.52]</t>
         </is>
       </c>
     </row>

--- a/results/table2/VP.xlsx
+++ b/results/table2/VP.xlsx
@@ -939,17 +939,17 @@
       </c>
       <c r="B25" s="1" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2 (0.3)</t>
+          <t>583 (91.5)</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1 (0.0)</t>
+          <t>2400 (93.1)</t>
         </is>
       </c>
     </row>
@@ -957,17 +957,17 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="1" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>8 (1.3)</t>
+          <t>2 (0.3)</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>25 (1.0)</t>
+          <t>1 (0.0)</t>
         </is>
       </c>
     </row>
@@ -975,17 +975,17 @@
       <c r="A27" s="1" t="n"/>
       <c r="B27" s="1" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>44 (6.9)</t>
+          <t>8 (1.3)</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>153 (5.9)</t>
+          <t>25 (1.0)</t>
         </is>
       </c>
     </row>
@@ -993,17 +993,17 @@
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="1" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>583 (91.5)</t>
+          <t>44 (6.9)</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2400 (93.1)</t>
+          <t>153 (5.9)</t>
         </is>
       </c>
     </row>

--- a/results/table2/VP.xlsx
+++ b/results/table2/VP.xlsx
@@ -467,7 +467,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -939,17 +939,17 @@
       </c>
       <c r="B25" s="1" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>583 (91.5)</t>
+          <t>593 (93.1)</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2400 (93.1)</t>
+          <t>2426 (94.1)</t>
         </is>
       </c>
     </row>
@@ -957,35 +957,39 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="1" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>44 (6.9)</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>153 (5.9)</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>Diabetes Type, n (%)</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>2 (0.3)</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>1 (0.0)</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="1" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>8 (1.3)</t>
+          <t>17 (2.7)</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>25 (1.0)</t>
+          <t>63 (2.4)</t>
         </is>
       </c>
     </row>
@@ -993,82 +997,86 @@
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="1" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>44 (6.9)</t>
+          <t>246 (38.6)</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>153 (5.9)</t>
+          <t>762 (29.5)</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="inlineStr">
-        <is>
-          <t>Diabetes Type, n (%)</t>
-        </is>
-      </c>
+      <c r="A29" s="1" t="n"/>
       <c r="B29" s="1" t="inlineStr">
         <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>374 (58.7)</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1754 (68.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>Connective Tissue Disease, n (%)</t>
+        </is>
+      </c>
+      <c r="B30" s="1" t="inlineStr">
+        <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>17 (2.7)</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>63 (2.4)</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n"/>
-      <c r="B30" s="1" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>246 (38.6)</t>
+          <t>27 (4.2)</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>762 (29.5)</t>
+          <t>101 (3.9)</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="n"/>
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>Pneumonia, n (%)</t>
+        </is>
+      </c>
       <c r="B31" s="1" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>374 (58.7)</t>
+          <t>40 (6.3)</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1754 (68.0)</t>
+          <t>130 (5.0)</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Connective Tissue Disease, n (%)</t>
+          <t>Urinary Tract Infection, n (%)</t>
         </is>
       </c>
       <c r="B32" s="1" t="inlineStr">
@@ -1078,19 +1086,19 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>27 (4.2)</t>
+          <t>3 (0.5)</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>101 (3.9)</t>
+          <t>13 (0.5)</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Pneumonia, n (%)</t>
+          <t>Biliary Tract Infection, n (%)</t>
         </is>
       </c>
       <c r="B33" s="1" t="inlineStr">
@@ -1098,21 +1106,17 @@
           <t>1.0</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>40 (6.3)</t>
-        </is>
-      </c>
+      <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
         <is>
-          <t>130 (5.0)</t>
+          <t>7 (0.3)</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Urinary Tract Infection, n (%)</t>
+          <t>Skin Infection, n (%)</t>
         </is>
       </c>
       <c r="B34" s="1" t="inlineStr">
@@ -1122,173 +1126,169 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>3 (0.5)</t>
+          <t>1 (0.2)</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>13 (0.5)</t>
+          <t>3 (0.1)</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Biliary Tract Infection, n (%)</t>
-        </is>
-      </c>
-      <c r="B35" s="1" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr"/>
+          <t>Age, median [Q1,Q3]</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr"/>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>65 [51,77]</t>
+        </is>
+      </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>7 (0.3)</t>
+          <t>69 [58,79]</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Skin Infection, n (%)</t>
-        </is>
-      </c>
-      <c r="B36" s="1" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
+          <t>ICU LOS (days, if deceased), median [Q1,Q3]</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr"/>
       <c r="C36" t="inlineStr">
         <is>
-          <t>1 (0.2)</t>
+          <t>5.00 [3.42,9.63]</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>3 (0.1)</t>
+          <t>5.50 [3.25,10.17]</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Age, median [Q1,Q3]</t>
+          <t>ICU LOS (days, if survived), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B37" s="1" t="inlineStr"/>
       <c r="C37" t="inlineStr">
         <is>
-          <t>65 [51,77]</t>
+          <t>4.58 [2.96,8.93]</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>69 [58,79]</t>
+          <t>4.21 [2.88,8.17]</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>ICU LOS (days, if deceased), median [Q1,Q3]</t>
+          <t>Charlson Comorbidity Index, median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B38" s="1" t="inlineStr"/>
       <c r="C38" t="inlineStr">
         <is>
-          <t>5.00 [3.42,9.63]</t>
+          <t>6 [4,9]</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>5.50 [3.25,10.17]</t>
+          <t>6 [4,8]</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>ICU LOS (days, if survived), median [Q1,Q3]</t>
+          <t>SOFA Score (admission), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B39" s="1" t="inlineStr"/>
       <c r="C39" t="inlineStr">
         <is>
-          <t>4.58 [2.96,8.93]</t>
+          <t>7 [5,10]</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>4.21 [2.88,8.17]</t>
+          <t>7 [4,10]</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Charlson Comorbidity Index, median [Q1,Q3]</t>
+          <t>MV Time (duration in the stay, % of ICU LOS), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B40" s="1" t="inlineStr"/>
       <c r="C40" t="inlineStr">
         <is>
-          <t>6 [4,9]</t>
+          <t>0.35 [0.17,0.56]</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>6 [4,8]</t>
+          <t>0.30 [0.16,0.52]</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>SOFA Score (admission), median [Q1,Q3]</t>
+          <t>MV_init_offset_abs_hours, median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B41" s="1" t="inlineStr"/>
       <c r="C41" t="inlineStr">
         <is>
-          <t>7 [5,10]</t>
+          <t>2.0 [1.0,8.0]</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>7 [4,10]</t>
+          <t>3.0 [1.0,9.0]</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>MV Time (duration in the stay, % of ICU LOS), median [Q1,Q3]</t>
+          <t>RRT_init_offset_abs_hours, median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B42" s="1" t="inlineStr"/>
       <c r="C42" t="inlineStr">
         <is>
-          <t>0.35 [0.17,0.56]</t>
+          <t>31.0 [12.5,65.5]</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0.30 [0.16,0.52]</t>
+          <t>34.0 [11.0,76.0]</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>MV_init_offset_abs_hours, median [Q1,Q3]</t>
+          <t>VP_init_offset_abs_hours, median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B43" s="1" t="inlineStr"/>
       <c r="C43" t="inlineStr">
         <is>
-          <t>2.0 [1.0,8.0]</t>
+          <t>3.0 [1.0,11.5]</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1300,52 +1300,16 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>RRT_init_offset_abs_hours, median [Q1,Q3]</t>
+          <t>Vasopressor Time (duration in the stay, % of ICU LOS), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B44" s="1" t="inlineStr"/>
       <c r="C44" t="inlineStr">
         <is>
-          <t>31.0 [12.5,65.5]</t>
+          <t>0.29 [0.13,0.53]</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
-        <is>
-          <t>34.0 [11.0,76.0]</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="inlineStr">
-        <is>
-          <t>VP_init_offset_abs_hours, median [Q1,Q3]</t>
-        </is>
-      </c>
-      <c r="B45" s="1" t="inlineStr"/>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>3.0 [1.0,11.5]</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>3.0 [1.0,9.0]</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="inlineStr">
-        <is>
-          <t>Vasopressor Time (duration in the stay, % of ICU LOS), median [Q1,Q3]</t>
-        </is>
-      </c>
-      <c r="B46" s="1" t="inlineStr"/>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>0.29 [0.13,0.53]</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
         <is>
           <t>0.34 [0.15,0.57]</t>
         </is>
@@ -1354,10 +1318,10 @@
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A25:A26"/>
     <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A29:A31"/>
     <mergeCell ref="A5:A8"/>
-    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="A27:A29"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
